--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang4/03.XNBH/XNBH_24.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang4/03.XNBH/XNBH_24.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -113,10 +113,37 @@
     <t>Người Lập</t>
   </si>
   <si>
-    <t>Người đại diện:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hà Nội, ngày  tháng  Năm 2024</t>
+    <t xml:space="preserve"> Hà Nội, ngày 10 tháng 04 Năm 2024</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý Anh Tuấn Ninh Bình</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>MCU GD</t>
+  </si>
+  <si>
+    <t>Thiết bị truyền log thường xuyên</t>
+  </si>
+  <si>
+    <t>Đổi thiết bị mới</t>
+  </si>
+  <si>
+    <t>Module sim lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt sim</t>
+  </si>
+  <si>
+    <t>TG102LE-4G</t>
+  </si>
+  <si>
+    <t>005505051194431</t>
+  </si>
+  <si>
+    <t>Lỗi phần cứng</t>
   </si>
 </sst>
 </file>
@@ -126,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +270,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="3">
@@ -283,19 +315,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -399,6 +418,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -407,7 +439,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,22 +493,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,20 +511,83 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,77 +604,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,21 +982,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="12" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="21.140625" style="14" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
@@ -970,250 +1005,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="41" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="44" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="47" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="19" t="s">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <v>1</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="63">
+        <v>861881052578102</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="28" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="24" t="s">
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -1238,64 +1305,75 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="C21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="20" t="s">
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H22" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-    </row>
-    <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+    </row>
+    <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
